--- a/заказы/Сочи/2024/02,24/12,02,24 Сочи Ост КИ/Заказ Останкино Сочи на 17.02.xlsx
+++ b/заказы/Сочи/2024/02,24/12,02,24 Сочи Ост КИ/Заказ Останкино Сочи на 17.02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\12,02,24 Сочи Ост КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\Сочи\2024\02,24\12,02,24 Сочи Ост КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F89440-0FAE-4BAD-B687-BDDC9AD01A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3F154B-12AA-41C9-8F33-56160EFDCD9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$149</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1341,8 +1341,8 @@
   <dimension ref="A1:II149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="D140" s="37"/>
     </row>
-    <row r="141" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="15">
         <v>6314</v>
       </c>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="D141" s="19"/>
     </row>
-    <row r="142" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="15">
         <v>6155</v>
       </c>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="D142" s="19"/>
     </row>
-    <row r="143" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="15">
         <v>6156</v>
       </c>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="D143" s="19"/>
     </row>
-    <row r="144" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="15">
         <v>6157</v>
       </c>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="D144" s="19"/>
     </row>
-    <row r="145" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="13">
         <v>4741</v>
       </c>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="D145" s="17"/>
     </row>
-    <row r="146" spans="1:4" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="14">
         <v>4745</v>
       </c>
@@ -3631,7 +3631,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E146" xr:uid="{6AF8B72D-0806-4971-8ADD-920048AA1E52}"/>
+  <autoFilter ref="A1:E149" xr:uid="{6AF8B72D-0806-4971-8ADD-920048AA1E52}"/>
   <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="0.15748031496062992" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="10" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
